--- a/data/0.reference/2.look_ups/SNNP/field.xlsx
+++ b/data/0.reference/2.look_ups/SNNP/field.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">guraghe</t>
   </si>
   <si>
-    <t xml:space="preserve">missing</t>
+    <t xml:space="preserve">meskan</t>
   </si>
   <si>
     <t xml:space="preserve">beresa</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">Hobicheka ga/1</t>
   </si>
   <si>
-    <t xml:space="preserve">halaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera</t>
+    <t xml:space="preserve">siltie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alaba special</t>
   </si>
   <si>
     <t xml:space="preserve">shekate</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">Tachi Lenda</t>
   </si>
   <si>
-    <t xml:space="preserve">ho/kuke</t>
+    <t xml:space="preserve">holugeb kuke</t>
   </si>
   <si>
     <t xml:space="preserve">Ho/kuke</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">Mis/go Retancha</t>
   </si>
   <si>
-    <t xml:space="preserve">ta/bedene</t>
+    <t xml:space="preserve">tachegnawo bedane</t>
   </si>
   <si>
     <t xml:space="preserve">Ta/Bedene</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">Chanbula</t>
   </si>
   <si>
-    <t xml:space="preserve">la/bedene</t>
+    <t xml:space="preserve">laygnawo bedane</t>
   </si>
   <si>
     <t xml:space="preserve">La/Bedene</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">Gedeba</t>
   </si>
   <si>
-    <t xml:space="preserve">mekala ha</t>
+    <t xml:space="preserve">huletegna mekala</t>
   </si>
   <si>
     <t xml:space="preserve">Mekala ha</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">Kuffe</t>
   </si>
   <si>
-    <t xml:space="preserve">la/lenda</t>
+    <t xml:space="preserve">layegnawo lenda</t>
   </si>
   <si>
     <t xml:space="preserve">La/lenda</t>
@@ -1898,9 +1898,6 @@
     <t xml:space="preserve">Dinokosa</t>
   </si>
   <si>
-    <t xml:space="preserve">atoti hullo</t>
-  </si>
-  <si>
     <t xml:space="preserve">mejja</t>
   </si>
   <si>
@@ -1983,9 +1980,6 @@
   </si>
   <si>
     <t xml:space="preserve">yanbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera dijjo</t>
   </si>
   <si>
     <t xml:space="preserve">kobo geto</t>
@@ -5242,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>173</v>
@@ -5275,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
         <v>175</v>
@@ -5308,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>177</v>
@@ -5341,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>179</v>
@@ -5374,7 +5368,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>181</v>
@@ -5407,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
         <v>183</v>
@@ -5440,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>185</v>
@@ -5473,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
         <v>187</v>
@@ -5506,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
         <v>189</v>
@@ -5539,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>191</v>
@@ -5572,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
         <v>193</v>
@@ -5605,7 +5599,7 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>195</v>
@@ -5638,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
         <v>197</v>
@@ -5671,7 +5665,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>199</v>
@@ -5704,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
         <v>201</v>
@@ -12678,13 +12672,13 @@
         <v>569</v>
       </c>
       <c r="C310" t="s">
+        <v>570</v>
+      </c>
+      <c r="D310" t="s">
         <v>628</v>
       </c>
-      <c r="D310" t="s">
+      <c r="E310" t="s">
         <v>629</v>
-      </c>
-      <c r="E310" t="s">
-        <v>630</v>
       </c>
       <c r="F310" t="n">
         <v>27</v>
@@ -12711,13 +12705,13 @@
         <v>569</v>
       </c>
       <c r="C311" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D311" t="s">
+        <v>630</v>
+      </c>
+      <c r="E311" t="s">
         <v>631</v>
-      </c>
-      <c r="E311" t="s">
-        <v>632</v>
       </c>
       <c r="F311" t="n">
         <v>22</v>
@@ -12744,13 +12738,13 @@
         <v>569</v>
       </c>
       <c r="C312" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D312" t="s">
+        <v>632</v>
+      </c>
+      <c r="E312" t="s">
         <v>633</v>
-      </c>
-      <c r="E312" t="s">
-        <v>634</v>
       </c>
       <c r="F312" t="n">
         <v>12</v>
@@ -12777,13 +12771,13 @@
         <v>569</v>
       </c>
       <c r="C313" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D313" t="s">
+        <v>634</v>
+      </c>
+      <c r="E313" t="s">
         <v>635</v>
-      </c>
-      <c r="E313" t="s">
-        <v>636</v>
       </c>
       <c r="F313" t="n">
         <v>8</v>
@@ -12810,13 +12804,13 @@
         <v>569</v>
       </c>
       <c r="C314" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D314" t="s">
+        <v>636</v>
+      </c>
+      <c r="E314" t="s">
         <v>637</v>
-      </c>
-      <c r="E314" t="s">
-        <v>638</v>
       </c>
       <c r="F314" t="n">
         <v>20</v>
@@ -12843,13 +12837,13 @@
         <v>569</v>
       </c>
       <c r="C315" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D315" t="s">
+        <v>638</v>
+      </c>
+      <c r="E315" t="s">
         <v>639</v>
-      </c>
-      <c r="E315" t="s">
-        <v>640</v>
       </c>
       <c r="F315" t="n">
         <v>20</v>
@@ -12876,13 +12870,13 @@
         <v>569</v>
       </c>
       <c r="C316" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D316" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E316" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F316" t="n">
         <v>31</v>
@@ -12909,13 +12903,13 @@
         <v>569</v>
       </c>
       <c r="C317" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D317" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E317" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F317" t="n">
         <v>31</v>
@@ -12942,13 +12936,13 @@
         <v>569</v>
       </c>
       <c r="C318" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D318" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E318" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F318" t="n">
         <v>34</v>
@@ -12975,13 +12969,13 @@
         <v>569</v>
       </c>
       <c r="C319" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D319" t="s">
+        <v>643</v>
+      </c>
+      <c r="E319" t="s">
         <v>644</v>
-      </c>
-      <c r="E319" t="s">
-        <v>645</v>
       </c>
       <c r="F319" t="n">
         <v>23</v>
@@ -13008,13 +13002,13 @@
         <v>569</v>
       </c>
       <c r="C320" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D320" t="s">
+        <v>645</v>
+      </c>
+      <c r="E320" t="s">
         <v>646</v>
-      </c>
-      <c r="E320" t="s">
-        <v>647</v>
       </c>
       <c r="F320" t="n">
         <v>20</v>
@@ -13041,13 +13035,13 @@
         <v>569</v>
       </c>
       <c r="C321" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D321" t="s">
+        <v>647</v>
+      </c>
+      <c r="E321" t="s">
         <v>648</v>
-      </c>
-      <c r="E321" t="s">
-        <v>649</v>
       </c>
       <c r="F321" t="n">
         <v>22</v>
@@ -13074,13 +13068,13 @@
         <v>569</v>
       </c>
       <c r="C322" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D322" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E322" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F322" t="n">
         <v>8</v>
@@ -13107,13 +13101,13 @@
         <v>569</v>
       </c>
       <c r="C323" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D323" t="s">
+        <v>650</v>
+      </c>
+      <c r="E323" t="s">
         <v>651</v>
-      </c>
-      <c r="E323" t="s">
-        <v>652</v>
       </c>
       <c r="F323" t="n">
         <v>4</v>
@@ -13140,13 +13134,13 @@
         <v>569</v>
       </c>
       <c r="C324" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D324" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E324" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F324" t="n">
         <v>8</v>
@@ -13173,13 +13167,13 @@
         <v>569</v>
       </c>
       <c r="C325" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D325" t="s">
+        <v>653</v>
+      </c>
+      <c r="E325" t="s">
         <v>654</v>
-      </c>
-      <c r="E325" t="s">
-        <v>655</v>
       </c>
       <c r="F325" t="n">
         <v>20</v>
@@ -13206,13 +13200,13 @@
         <v>569</v>
       </c>
       <c r="C326" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="D326" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E326" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F326" t="n">
         <v>10</v>
@@ -13239,13 +13233,13 @@
         <v>569</v>
       </c>
       <c r="C327" t="s">
+        <v>570</v>
+      </c>
+      <c r="D327" t="s">
+        <v>656</v>
+      </c>
+      <c r="E327" t="s">
         <v>657</v>
-      </c>
-      <c r="D327" t="s">
-        <v>658</v>
-      </c>
-      <c r="E327" t="s">
-        <v>659</v>
       </c>
       <c r="F327" t="n">
         <v>9</v>
@@ -13272,13 +13266,13 @@
         <v>569</v>
       </c>
       <c r="C328" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
       <c r="D328" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E328" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F328" t="n">
         <v>11</v>
